--- a/Data/EC/NIT-9004719972.xlsx
+++ b/Data/EC/NIT-9004719972.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530D8917-36CF-4FD3-A22E-872BF4B8D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9EFDAA-07F5-4793-B3CA-E4B958EB852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E130D4F-C956-4015-931C-A0338A49B816}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6B9420D-6B50-45D4-81A4-24205EAB023F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="122">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,280 +71,304 @@
     <t>ALEXANDER LUGO ARROYO</t>
   </si>
   <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
+    <t>73109672</t>
+  </si>
+  <si>
+    <t>EDGAR CASTILLO LEDESMA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>45764059</t>
+  </si>
+  <si>
+    <t>VERENA MARIA LUGO ARROYO</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>898055</t>
+  </si>
+  <si>
+    <t>MAGDELY SANYAIR ARANGUREN ARRIECHE</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -443,7 +467,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -456,9 +482,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -658,23 +682,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,10 +726,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,7 +782,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12369E9-915D-6D20-EDB0-13A804B168A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920D734C-40F8-F498-F92E-0DCB685C1020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,8 +1133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BACDE-B493-4520-A7CC-BDCB3ED97A7F}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD101B-8E48-4026-AAF0-805C6B1F3445}">
+  <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1121,7 +1145,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1134,7 +1158,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1179,7 +1203,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1211,12 +1235,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2944000</v>
+        <v>3236000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1227,17 +1251,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F13" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1264,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -3367,56 +3391,148 @@
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="22" t="s">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F107" s="24">
-        <v>32000</v>
-      </c>
-      <c r="G107" s="24">
-        <v>800000</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="F107" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G107" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G108" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G109" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" s="24">
+        <v>80000</v>
+      </c>
+      <c r="G111" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="H116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="H117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H116:J116"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
